--- a/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
+++ b/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ComputerLanguage\CSharp\Illustrate_The_C#_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C091C6D-B9C3-4DD7-854C-5768CC9460D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9A116-C99C-41F7-BC1B-0A200727DF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,43 @@
   <si>
     <t>泛型委托+action+func</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0602</t>
+  </si>
+  <si>
+    <t>CH0603</t>
+  </si>
+  <si>
+    <t>CH0604</t>
+  </si>
+  <si>
+    <t>CH0605</t>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IComparable实现sort排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类引用转接口引用</t>
+  </si>
+  <si>
+    <t>隐式接口实现</t>
+  </si>
+  <si>
+    <t>显示接口实现</t>
   </si>
 </sst>
 </file>
@@ -581,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13E2AE-A76B-4621-99E7-E6A9761F5B0D}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -819,8 +856,56 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B19"/>

--- a/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
+++ b/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ComputerLanguage\CSharp\Illustrate_The_C#_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9A116-C99C-41F7-BC1B-0A200727DF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77768418-CAA6-4D8F-9239-B8EDD8927673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
+    <workbookView xWindow="5573" yWindow="1177" windowWidth="14400" windowHeight="8213" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,97 @@
   </si>
   <si>
     <t>显示接口实现</t>
+  </si>
+  <si>
+    <t>CH0701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0702</t>
+  </si>
+  <si>
+    <t>CH0703</t>
+  </si>
+  <si>
+    <t>CH0704</t>
+  </si>
+  <si>
+    <t>转换溢出检测checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用转换</t>
+  </si>
+  <si>
+    <t>装箱和拆箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is 和 as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0802</t>
+  </si>
+  <si>
+    <t>CH0803</t>
+  </si>
+  <si>
+    <t>CH0804</t>
+  </si>
+  <si>
+    <t>泛型约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型扩展方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型委托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0805</t>
+  </si>
+  <si>
+    <t>逆变和协变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射和特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type类获取反射对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH0902</t>
+  </si>
+  <si>
+    <t>自定义特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13E2AE-A76B-4621-99E7-E6A9761F5B0D}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -903,15 +994,124 @@
         <v>62</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
+++ b/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ComputerLanguage\CSharp\Illustrate_The_C#_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77768418-CAA6-4D8F-9239-B8EDD8927673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C880F-E03E-42A0-9AC9-306658B01FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5573" yWindow="1177" windowWidth="14400" windowHeight="8213" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,12 +374,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -388,12 +403,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13E2AE-A76B-4621-99E7-E6A9761F5B0D}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -731,378 +749,377 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B30:B33"/>

--- a/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
+++ b/ComputerLanguage/CSharp/Illustrate_The_C#_Tutorial/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ComputerLanguage\CSharp\Illustrate_The_C#_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C880F-E03E-42A0-9AC9-306658B01FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB8791-E1A2-4F9B-A8A2-92754003D1AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{7143E772-4541-4C02-B857-1AAD6A80A7E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,25 @@
   </si>
   <si>
     <t>自定义特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamda表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1002</t>
+  </si>
+  <si>
+    <t>Linq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda+Linq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -397,20 +416,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13E2AE-A76B-4621-99E7-E6A9761F5B0D}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -742,383 +789,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B7:B12"/>
